--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,161 +1173,161 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>10</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>10</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Initiating</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>12</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Initiating</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>12</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>12</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>9</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>12</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>10</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>12</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>12</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>12</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>trigger</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>12</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>14</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>12</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>10</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Flight</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>19</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Flight</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>11</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>19</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>12</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>19</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>13</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>19</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>14</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>19</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>15</v>
-      </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12202,470 +12202,470 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>20</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>When</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>6</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>20</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,161 +1173,161 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="D96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>0</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>12</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>12</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>12</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>12</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>12</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,676 +11474,676 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>19</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>11</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>19</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>12</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>19</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>13</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>19</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>14</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>19</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12202,470 +12202,470 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>0</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
